--- a/natmiOut/OldD7/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.953326648209928</v>
+        <v>0.9626043333333333</v>
       </c>
       <c r="H2">
-        <v>0.953326648209928</v>
+        <v>2.887813</v>
       </c>
       <c r="I2">
-        <v>0.08861931452304363</v>
+        <v>0.07904870764102041</v>
       </c>
       <c r="J2">
-        <v>0.08861931452304363</v>
+        <v>0.07904870764102041</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.44388049036781</v>
+        <v>7.543204</v>
       </c>
       <c r="N2">
-        <v>6.44388049036781</v>
+        <v>22.629612</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9718881576768906</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9718881576768906</v>
       </c>
       <c r="Q2">
-        <v>6.143122989347692</v>
+        <v>7.261120857617334</v>
       </c>
       <c r="R2">
-        <v>6.143122989347692</v>
+        <v>65.350087718556</v>
       </c>
       <c r="S2">
-        <v>0.08861931452304363</v>
+        <v>0.07682650283597048</v>
       </c>
       <c r="T2">
-        <v>0.08861931452304363</v>
+        <v>0.07682650283597048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.29467594566015</v>
+        <v>0.9626043333333333</v>
       </c>
       <c r="H3">
-        <v>2.29467594566015</v>
+        <v>2.887813</v>
       </c>
       <c r="I3">
-        <v>0.2133084286889041</v>
+        <v>0.07904870764102041</v>
       </c>
       <c r="J3">
-        <v>0.2133084286889041</v>
+        <v>0.07904870764102041</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>6.44388049036781</v>
+        <v>0.218187</v>
       </c>
       <c r="N3">
-        <v>6.44388049036781</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02811184232310935</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02811184232310934</v>
       </c>
       <c r="Q3">
-        <v>14.78661755795575</v>
+        <v>0.210027751677</v>
       </c>
       <c r="R3">
-        <v>14.78661755795575</v>
+        <v>1.890249765093</v>
       </c>
       <c r="S3">
-        <v>0.2133084286889041</v>
+        <v>0.002222204805049935</v>
       </c>
       <c r="T3">
-        <v>0.2133084286889041</v>
+        <v>0.002222204805049934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.876161746271</v>
+        <v>2.399281333333333</v>
       </c>
       <c r="H4">
-        <v>6.876161746271</v>
+        <v>7.197844</v>
       </c>
       <c r="I4">
-        <v>0.6391940702049126</v>
+        <v>0.1970280852678733</v>
       </c>
       <c r="J4">
-        <v>0.6391940702049126</v>
+        <v>0.1970280852678733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.44388049036781</v>
+        <v>7.543204</v>
       </c>
       <c r="N4">
-        <v>6.44388049036781</v>
+        <v>22.629612</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9718881576768906</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9718881576768906</v>
       </c>
       <c r="Q4">
-        <v>44.30916452540915</v>
+        <v>18.09826855072533</v>
       </c>
       <c r="R4">
-        <v>44.30916452540915</v>
+        <v>162.884416956528</v>
       </c>
       <c r="S4">
-        <v>0.6391940702049126</v>
+        <v>0.1914892628015987</v>
       </c>
       <c r="T4">
-        <v>0.6391940702049126</v>
+        <v>0.1914892628015987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,303 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.399281333333333</v>
+      </c>
+      <c r="H5">
+        <v>7.197844</v>
+      </c>
+      <c r="I5">
+        <v>0.1970280852678733</v>
+      </c>
+      <c r="J5">
+        <v>0.1970280852678733</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.218187</v>
+      </c>
+      <c r="N5">
+        <v>0.6545609999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.02811184232310935</v>
+      </c>
+      <c r="P5">
+        <v>0.02811184232310934</v>
+      </c>
+      <c r="Q5">
+        <v>0.523491996276</v>
+      </c>
+      <c r="R5">
+        <v>4.711427966484</v>
+      </c>
+      <c r="S5">
+        <v>0.005538822466274597</v>
+      </c>
+      <c r="T5">
+        <v>0.005538822466274597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.633384997052622</v>
-      </c>
-      <c r="H5">
-        <v>0.633384997052622</v>
-      </c>
-      <c r="I5">
-        <v>0.05887818658313974</v>
-      </c>
-      <c r="J5">
-        <v>0.05887818658313974</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.44388049036781</v>
-      </c>
-      <c r="N5">
-        <v>6.44388049036781</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>4.081457225399064</v>
-      </c>
-      <c r="R5">
-        <v>4.081457225399064</v>
-      </c>
-      <c r="S5">
-        <v>0.05887818658313974</v>
-      </c>
-      <c r="T5">
-        <v>0.05887818658313974</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.460122666666666</v>
+      </c>
+      <c r="H6">
+        <v>22.380368</v>
+      </c>
+      <c r="I6">
+        <v>0.6126224817640369</v>
+      </c>
+      <c r="J6">
+        <v>0.6126224817640369</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.543204</v>
+      </c>
+      <c r="N6">
+        <v>22.629612</v>
+      </c>
+      <c r="O6">
+        <v>0.9718881576768906</v>
+      </c>
+      <c r="P6">
+        <v>0.9718881576768906</v>
+      </c>
+      <c r="Q6">
+        <v>56.27322713969066</v>
+      </c>
+      <c r="R6">
+        <v>506.459044257216</v>
+      </c>
+      <c r="S6">
+        <v>0.5954005351530943</v>
+      </c>
+      <c r="T6">
+        <v>0.5954005351530943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.460122666666666</v>
+      </c>
+      <c r="H7">
+        <v>22.380368</v>
+      </c>
+      <c r="I7">
+        <v>0.6126224817640369</v>
+      </c>
+      <c r="J7">
+        <v>0.6126224817640369</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.218187</v>
+      </c>
+      <c r="N7">
+        <v>0.6545609999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.02811184232310935</v>
+      </c>
+      <c r="P7">
+        <v>0.02811184232310934</v>
+      </c>
+      <c r="Q7">
+        <v>1.627701784272</v>
+      </c>
+      <c r="R7">
+        <v>14.649316058448</v>
+      </c>
+      <c r="S7">
+        <v>0.01722194661094253</v>
+      </c>
+      <c r="T7">
+        <v>0.01722194661094253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.355348666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.066046</v>
+      </c>
+      <c r="I8">
+        <v>0.1113007253270695</v>
+      </c>
+      <c r="J8">
+        <v>0.1113007253270695</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.543204</v>
+      </c>
+      <c r="N8">
+        <v>22.629612</v>
+      </c>
+      <c r="O8">
+        <v>0.9718881576768906</v>
+      </c>
+      <c r="P8">
+        <v>0.9718881576768906</v>
+      </c>
+      <c r="Q8">
+        <v>10.22367148379467</v>
+      </c>
+      <c r="R8">
+        <v>92.013043354152</v>
+      </c>
+      <c r="S8">
+        <v>0.1081718568862272</v>
+      </c>
+      <c r="T8">
+        <v>0.1081718568862272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.355348666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.066046</v>
+      </c>
+      <c r="I9">
+        <v>0.1113007253270695</v>
+      </c>
+      <c r="J9">
+        <v>0.1113007253270695</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.218187</v>
+      </c>
+      <c r="N9">
+        <v>0.6545609999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.02811184232310935</v>
+      </c>
+      <c r="P9">
+        <v>0.02811184232310934</v>
+      </c>
+      <c r="Q9">
+        <v>0.295719459534</v>
+      </c>
+      <c r="R9">
+        <v>2.661475135806</v>
+      </c>
+      <c r="S9">
+        <v>0.00312886844084228</v>
+      </c>
+      <c r="T9">
+        <v>0.00312886844084228</v>
       </c>
     </row>
   </sheetData>
